--- a/Products_List.xlsx
+++ b/Products_List.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>catrgory</t>
   </si>
@@ -43,10 +43,7 @@
     <t>Reusable Cotton Pads</t>
   </si>
   <si>
-    <t>Replace disposable cotton pads with reusable, washable cotton pads.</t>
-  </si>
-  <si>
-    <t>Reusable, can be washed and reused multiple times.</t>
+    <t>Lorem ipsum odor amet, consectetuer adipiscing elit. Duis conubia varius luctus euismod vehicula fames ex purus orci. Luctus primis vehicula a at at congue luctus dignissim. Ad vitae morbi justo ipsum taciti. Massa tempor lacus ullamcorper nostra a taciti nisl maximus tempor. Hendrerit vitae felis blandit montes imperdiet dignissim. Pellentesque senectus hac tincidunt dignissim posuere cursus neque? Integer eget nisl varius aenean non pellentesque augue curae. Suscipit dignissim consectetur congue ornare odio fermentum. Ridiculus ligula porttitor lacinia semper sed himenaeos natoque; suspendisse ultricies.</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/911qbbGNarL._AC_SX679_.jpg</t>
@@ -61,13 +58,6 @@
     <t>BeesWax Food Wraps</t>
   </si>
   <si>
-    <t>Reusable, beeswax-coated wraps for storing food instead of plastic wrap.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reusable, can be washed and reused multiple times.
-</t>
-  </si>
-  <si>
     <t>https://homesteadingfamily.com/wp-content/uploads/2021/12/Sandwich-Wrapped-Beeswax_HF-980x653.jpg</t>
   </si>
   <si>
@@ -80,12 +70,6 @@
     <t>Recycled Cotton T-Shirts</t>
   </si>
   <si>
-    <t xml:space="preserve"> T-shirts made from recycled cotton, reducing waste and water consumption.</t>
-  </si>
-  <si>
-    <t>Durable and long-lasting.</t>
-  </si>
-  <si>
     <t>https://ecopromotionsonline.com/sites/default/files/2022-03/100%20Percent%20Recycled%20Cotton%20Unisex%20Crew%20Tee%202_0.jpg</t>
   </si>
   <si>
@@ -98,12 +82,6 @@
     <t>Upcycled Glass Jars</t>
   </si>
   <si>
-    <t>Repurposed glass jars for storage, vases, or decorative purposes.</t>
-  </si>
-  <si>
-    <t>Reusable and can be recycled.</t>
-  </si>
-  <si>
     <t>https://hallmark.brightspotcdn.com/dims4/default/6434d72/2147483647/strip/true/crop/2500x1667+0+0/resize/1920x1280!/quality/90/?url=http%3A%2F%2Fhallmark-channel-brightspot.s3.amazonaws.com%2Fe2%2Ffc%2F44f9e9ee04e9d443638082d6f0e7%2Fhhaf8123-200304-143333.jpg</t>
   </si>
   <si>
@@ -113,12 +91,6 @@
     <t>Bamboo Cutting Boards</t>
   </si>
   <si>
-    <t>Durable and sustainable alternative to plastic cutting boards</t>
-  </si>
-  <si>
-    <t>Reuseable and washable</t>
-  </si>
-  <si>
     <t>https://bamboozone.in/wp-content/uploads/2022/02/Bamboo-Chopping-Board-1.jpg</t>
   </si>
   <si>
@@ -128,24 +100,12 @@
     <t>Reusable Coffee Mugs</t>
   </si>
   <si>
-    <t>Reduce waste from disposable cups</t>
-  </si>
-  <si>
-    <t>Durable and Washable</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/51P2JeSL20L._AC_UF894,1000_QL80_.jpg</t>
   </si>
   <si>
     <t>Bar Soap</t>
   </si>
   <si>
-    <t>A solid alternative to liquid soap made with natural ingredients</t>
-  </si>
-  <si>
-    <t>3-4 months</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSfLaPEsdi5LajU5vykNH7xeg-IvJHeVad31A&amp;s</t>
   </si>
   <si>
@@ -155,18 +115,12 @@
     <t>Cork Coasters</t>
   </si>
   <si>
-    <t>Made from sustainable cork, these coasters are durable, eco-friendly, and add a touch of natural beauty to any home.</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTgjE2D0kaB19fi3nW1cbM_hd1RStQHnDiW7w&amp;s</t>
   </si>
   <si>
     <t>Recycled Glass Tableware</t>
   </si>
   <si>
-    <t>Elegant and functional glassware made from recycled glass, reducing waste and promoting a circular economy</t>
-  </si>
-  <si>
     <t>https://recycledglassworks.com/wp-content/uploads/2014/06/recycled-glass-dinner-plates-Spiral-set-clear.jpg</t>
   </si>
   <si>
@@ -176,12 +130,6 @@
     <t>Natural Deodrants</t>
   </si>
   <si>
-    <t>Made from natural ingredients kile coconut oil, shea butter and baking soda, offering a healthy and eco friendy alternative to traditional deodrants</t>
-  </si>
-  <si>
-    <t>3-6 months</t>
-  </si>
-  <si>
     <t>https://mycarmesi.com/cdn/shop/files/CarmesiListingDeo-Rollon_floralslide1.jpg?v=1683265033</t>
   </si>
   <si>
@@ -191,13 +139,148 @@
     <t>Reusable Water Bottles</t>
   </si>
   <si>
-    <t>Choose from a variety of reusable water bottles made from sustainable materials like stainless steel or glass</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTTNtQHzfCdAigRV475ElCBce5cS3fHuxsdxg&amp;s</t>
   </si>
   <si>
     <t>₹259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics </t>
+  </si>
+  <si>
+    <t>Solar Power Charger</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/949299902/photo/portable-solar-panel-is-on-the-beach.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=FBm27VqFizqlWZFZWl8Obhk79gqJI0OdvI4gG2wT5-0=</t>
+  </si>
+  <si>
+    <t>₹659</t>
+  </si>
+  <si>
+    <t>Plant Based Toothpaste</t>
+  </si>
+  <si>
+    <t>https://vegnews.com/media/W1siZiIsIjQwMjc0L1ZlZ05ld3MuVG9vdGhwYXN0ZS5Cb2thLmpwZWciXSxbInAiLCJ0aHVtYiIsIjEyMDB4OTAwIyIseyJmb3JtYXQiOiJqcGcifV0sWyJwIiwib3B0aW1pemUiXV0/VegNews.Toothpaste.Boka.jpg?sha=5deefa15e6125536</t>
+  </si>
+  <si>
+    <t>Biodegradable Phone Case</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/612Vms3syDL.jpg</t>
+  </si>
+  <si>
+    <t>₹99</t>
+  </si>
+  <si>
+    <t>Steel Straws</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/673d93_19bbf5ec0056442299c8beb54fe5969f~mv2.jpg/v1/fill/w_520,h_480,al_c,q_80,usm_0.66_1.00_0.01,enc_auto/673d93_19bbf5ec0056442299c8beb54fe5969f~mv2.jpg</t>
+  </si>
+  <si>
+    <t>Natural Fibre Rugs</t>
+  </si>
+  <si>
+    <t>https://i0.wp.com/kaahira.com/wp-content/uploads/2024/05/3-6.jpg</t>
+  </si>
+  <si>
+    <t>₹299</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Recycled Paper Notebooks</t>
+  </si>
+  <si>
+    <t>https://www.rescript.in/assets/uploads/inventory/pro_63d8d7365a5212556.jpg</t>
+  </si>
+  <si>
+    <t>₹199</t>
+  </si>
+  <si>
+    <t>Pet Supplies</t>
+  </si>
+  <si>
+    <t>Compostalbe Dog Waste Bags</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81LFHXu5dML._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Baby Products</t>
+  </si>
+  <si>
+    <t>Organic Cotton Baby Onesie</t>
+  </si>
+  <si>
+    <t>https://ninobambino.in/cdn/shop/articles/2ee1dff8-b77a-40d4-a6fa-5308bee90246.jpg?v=1709023665</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Upcycled Denim Backpack</t>
+  </si>
+  <si>
+    <t>https://dwijproducts.com/cdn/shop/files/upcycled-denim-office-backpack-2_b0c2ea0f-132c-429a-aee3-061abf5449cd.jpg?v=1724410738&amp;width=1445</t>
+  </si>
+  <si>
+    <t>₹399</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Eco Friendly Yoga Mat</t>
+  </si>
+  <si>
+    <t>https://proyog.com/cdn/shop/products/Bengal-Mat_1200x.jpg?v=1666444748</t>
+  </si>
+  <si>
+    <t>₹699</t>
+  </si>
+  <si>
+    <t>Food &amp; Bevrage</t>
+  </si>
+  <si>
+    <t>Organic Herbal Tea</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61HMviE9BXL.jpg</t>
+  </si>
+  <si>
+    <t>Organic Cotton Dish Towels</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81c05BKot1L._AC_UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>₹599</t>
+  </si>
+  <si>
+    <t>Garderning</t>
+  </si>
+  <si>
+    <t>Solar Powered Garden Lights</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81ukgwJ-PoL.jpg</t>
+  </si>
+  <si>
+    <t>₹799</t>
+  </si>
+  <si>
+    <t>Art &amp; Crafts</t>
+  </si>
+  <si>
+    <t>Biodegradable Glitter</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81ijHegij2L.jpg</t>
+  </si>
+  <si>
+    <t>₹800</t>
   </si>
 </sst>
 </file>
@@ -512,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>0.25</v>
@@ -529,22 +612,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>0.33</v>
@@ -555,22 +638,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>0.57</v>
@@ -581,22 +664,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1">
         <v>0.4</v>
@@ -607,22 +690,22 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>0.2</v>
@@ -633,22 +716,22 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
         <v>0.6</v>
@@ -662,19 +745,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -685,22 +768,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1">
         <v>0.2</v>
@@ -711,22 +794,22 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1">
         <v>0.6</v>
@@ -740,19 +823,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1">
         <v>0.4</v>
@@ -766,25 +849,389 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1">
         <v>0.5</v>
       </c>
       <c r="H12" s="1">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +1247,21 @@
     <hyperlink r:id="rId9" ref="E10"/>
     <hyperlink r:id="rId10" ref="E11"/>
     <hyperlink r:id="rId11" ref="E12"/>
+    <hyperlink r:id="rId12" ref="E13"/>
+    <hyperlink r:id="rId13" ref="E14"/>
+    <hyperlink r:id="rId14" ref="E15"/>
+    <hyperlink r:id="rId15" ref="E16"/>
+    <hyperlink r:id="rId16" ref="E17"/>
+    <hyperlink r:id="rId17" ref="E18"/>
+    <hyperlink r:id="rId18" ref="E19"/>
+    <hyperlink r:id="rId19" ref="E20"/>
+    <hyperlink r:id="rId20" ref="E21"/>
+    <hyperlink r:id="rId21" ref="E22"/>
+    <hyperlink r:id="rId22" ref="E23"/>
+    <hyperlink r:id="rId23" ref="E24"/>
+    <hyperlink r:id="rId24" ref="E25"/>
+    <hyperlink r:id="rId25" ref="E26"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>